--- a/biology/Médecine/Juliusspital/Juliusspital.xlsx
+++ b/biology/Médecine/Juliusspital/Juliusspital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Juliusspital est fondé par le prince-évêque de Wurtzbourg Jules Echter von Mespelbrunn. L'élément majeur de la fondation est un hôpital de 365 lits, ainsi qu'une maison de retraite de 150 places. Il comprend une grande cave du domaine viticole de Würzburger Stein.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1573, Jules Echter von Mespelbrunn est élu prince-évêque de Wutrzbourg après avoir été au chapitre par le diocèse de Mayence. Le diocèse est dans la tourmente religieuse de la Réforme, et la noblesse de Franconie s'est principalement convertie au protestantisme. Il s'agit alors d'avoir un grand prince pour contrer la nouvelle religion selon le principe Cujus regio, ejus religio. Il se rend compte de l'absence d'un grand hôpital à Wutrzbourg.
 Il bâtit l'hôpital sur sa fortune personnelle. Il rachète des jardins ainsi que le cimetière juif qu'il rase. La première pierre est posée le 12 mars 1576. Dans la lettre de fondation en 1579, on épargne les terres agricoles, viticoles et les forêts qui ont de la valeur. Le lieu doit recevoir les pauvres, les malades, les orphelins et les pèlerins.
